--- a/Hardware/S3-27-epaper-touch-pro/POS/bom.xlsx
+++ b/Hardware/S3-27-epaper-touch-pro/POS/bom.xlsx
@@ -20,98 +20,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="168">
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
   <si>
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference</t>
-  </si>
-  <si>
     <t xml:space="preserve">Footprint</t>
   </si>
   <si>
+    <t xml:space="preserve">Datasheet</t>
+  </si>
+  <si>
     <t xml:space="preserve">LCSC</t>
   </si>
   <si>
+    <t xml:space="preserve">Menge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1, C2, C3, C4, C5, C6, C7, C8, C14, C15</t>
+  </si>
+  <si>
     <t xml:space="preserve">1uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C1, C2, C3, C4, C5, C6, C7, C8, C14, C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_0805_2012</t>
+    <t xml:space="preserve">Capacitor_SMD:C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~</t>
   </si>
   <si>
     <t xml:space="preserve">C28323</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7uF 50V US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9, C12</t>
+    <t xml:space="preserve">C9, C10, C11, C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7uF 50V_US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- verschiedene Werte --</t>
   </si>
   <si>
     <t xml:space="preserve">C162420</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7uF 50V_US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10, C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacitor_SMD:C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
+    <t xml:space="preserve">C13, C19, C20</t>
   </si>
   <si>
     <t xml:space="preserve">100nF</t>
   </si>
   <si>
-    <t xml:space="preserve">C13, C19, C20</t>
-  </si>
-  <si>
     <t xml:space="preserve">C49678</t>
   </si>
   <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
     <t xml:space="preserve">C_Polarized 100uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C16</t>
-  </si>
-  <si>
     <t xml:space="preserve">Capacitor_Tantalum_SMD:CP_EIA-3528-21_Kemet-B</t>
   </si>
   <si>
+    <t xml:space="preserve">https://datasheet.lcsc.com/lcsc/2004141707_KEMET-T491X477K010AT_C513339.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
     <t xml:space="preserve">220uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C17, C18</t>
+    <t xml:space="preserve">https://jlcpcb.com/partdetail/Kemet-T490B227M006ATE500/C122252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1, D2, D3, D4, D13</t>
   </si>
   <si>
     <t xml:space="preserve">MBR0530</t>
   </si>
   <si>
-    <t xml:space="preserve">D1, D2, D3, D4, D13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Diode_SMD:D_SOD-123</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.mccsemi.com/up_pdf/MBR0520~MBR0580(SOD123).pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5, D6, D7, D8, D9, D10, D11, D12</t>
+  </si>
+  <si>
     <t xml:space="preserve">SK6812MINI-E</t>
   </si>
   <si>
-    <t xml:space="preserve">D5-D12</t>
-  </si>
-  <si>
     <t xml:space="preserve">tp4056:MX_SK6812MINI-E</t>
   </si>
   <si>
+    <t xml:space="preserve">https://jlcpcb.com/partdetail/OpscoOptoelectronics-SK6812MINIE/C5149201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1, H2, H6</t>
+  </si>
+  <si>
     <t xml:space="preserve">MountingSwitch</t>
   </si>
   <si>
-    <t xml:space="preserve">H1, H2, H6</t>
-  </si>
-  <si>
     <t xml:space="preserve">MountingHole:MountingHole_3.2mm_M3</t>
   </si>
   <si>
@@ -127,333 +142,375 @@
     <t xml:space="preserve">Symbol:Symbol_CC-Noncommercial_CopperTop_Small</t>
   </si>
   <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
     <t xml:space="preserve">AFC24-S24FIC-00</t>
   </si>
   <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tp4056:FPC-SMD_P0.50-24P_QCHF-SM-H2.0</t>
   </si>
   <si>
     <t xml:space="preserve">C262292</t>
   </si>
   <si>
+    <t xml:space="preserve">J2, J3, J8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conn_01x06</t>
   </si>
   <si>
-    <t xml:space="preserve">J2, J3, J8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Connector_PinHeader_2.54mm:PinHeader_1x06_P2.54mm_Vertical</t>
   </si>
   <si>
+    <t xml:space="preserve">J4</t>
+  </si>
+  <si>
     <t xml:space="preserve">TochConn</t>
   </si>
   <si>
-    <t xml:space="preserve">J4</t>
-  </si>
-  <si>
     <t xml:space="preserve">tp4056:FFC-SMD_6P-P0.50_FH34SRJ-6S-0.5SH</t>
   </si>
   <si>
+    <t xml:space="preserve">https://jlcpcb.com/partdetail/hrs_hirose-FH34SRJ_6S_0_5SH_50/C224194</t>
+  </si>
+  <si>
     <t xml:space="preserve">C224194</t>
   </si>
   <si>
-    <t xml:space="preserve">Groove sensor</t>
-  </si>
-  <si>
     <t xml:space="preserve">J5</t>
   </si>
   <si>
-    <t xml:space="preserve">footprint:MOLEX-I2C-532530470</t>
+    <t xml:space="preserve">Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector_PinHeader_2.54mm:PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J6</t>
   </si>
   <si>
     <t xml:space="preserve">Conn_01x05_Pin</t>
   </si>
   <si>
-    <t xml:space="preserve">J6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Connector_PinHeader_2.54mm:PinHeader_1x05_P2.54mm_Vertical</t>
   </si>
   <si>
+    <t xml:space="preserve">J7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conn_01x04_Pin</t>
   </si>
   <si>
-    <t xml:space="preserve">J7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Connector_PinHeader_2.54mm:PinHeader_1x04_P2.54mm_Vertical</t>
   </si>
   <si>
+    <t xml:space="preserve">J10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conn_01x06_Pin</t>
   </si>
   <si>
-    <t xml:space="preserve">J10</t>
+    <t xml:space="preserve">JP1</t>
   </si>
   <si>
     <t xml:space="preserve">RESE</t>
   </si>
   <si>
-    <t xml:space="preserve">JP1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tp4056:SW-SMD_G-SWITCH_MK-12C02-G015</t>
   </si>
   <si>
     <t xml:space="preserve">C2911519</t>
   </si>
   <si>
+    <t xml:space="preserve">JP2, JP3, JP5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jumper_2_Bridged</t>
   </si>
   <si>
-    <t xml:space="preserve">JP2, JP3, JP5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jumper:SolderJumper-2_P1.3mm_Bridged_RoundedPad1.0x1.5mm</t>
   </si>
   <si>
+    <t xml:space="preserve">JP4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jumper_2_Open</t>
   </si>
   <si>
-    <t xml:space="preserve">JP4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jumper:SolderJumper-2_P1.3mm_Open_RoundedPad1.0x1.5mm</t>
   </si>
   <si>
+    <t xml:space="preserve">JP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumper_3_Bridged12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumper:SolderJumper-3_P1.3mm_Bridged12_RoundedPad1.0x1.5mm_NumberLabels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
     <t xml:space="preserve">10uH</t>
   </si>
   <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tp4056:IND-SMD_L4.0-W4.0</t>
   </si>
   <si>
+    <t xml:space="preserve">https://jlcpcb.com/partdetail/Sunlord-SWPA4030S100MT/C38117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Si1308</t>
   </si>
   <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Package_TO_SOT_SMD:SOT-323_SC-70</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.onsemi.com/pub/Collateral/NDS7002A-D.PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Si2301</t>
   </si>
   <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Package_TO_SOT_SMD:SOT-23</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.vishay.com/docs/66709/si2319cd.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R2, R4, R5, R6, R8, R9, R10, R12, R14, R15, R17, R18, R19, R25</t>
+  </si>
+  <si>
     <t xml:space="preserve">10K</t>
   </si>
   <si>
-    <t xml:space="preserve">R1, R2, R4, R5, R6, R8, R9, R10, R12, R14, R15, R17, R18, R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_0805_2012</t>
+    <t xml:space="preserve">Resistor_SMD:R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
   </si>
   <si>
     <t xml:space="preserve">C17414</t>
   </si>
   <si>
+    <t xml:space="preserve">R3</t>
+  </si>
+  <si>
     <t xml:space="preserve">3R</t>
   </si>
   <si>
-    <t xml:space="preserve">R3</t>
+    <t xml:space="preserve">https://jlcpcb.com/partdetail/25980-0603WAJ030JT5E/C25237</t>
   </si>
   <si>
     <t xml:space="preserve">C25237</t>
   </si>
   <si>
+    <t xml:space="preserve">R7, R13</t>
+  </si>
+  <si>
     <t xml:space="preserve">5k11</t>
   </si>
   <si>
-    <t xml:space="preserve">R7, R13</t>
-  </si>
-  <si>
     <t xml:space="preserve">C27834</t>
   </si>
   <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.47R</t>
   </si>
   <si>
-    <t xml:space="preserve">R11</t>
+    <t xml:space="preserve">R16, R20, R24</t>
   </si>
   <si>
     <t xml:space="preserve">N.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">R16, R24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R20</t>
+    <t xml:space="preserve">R21, R22</t>
   </si>
   <si>
     <t xml:space="preserve">0R</t>
   </si>
   <si>
-    <t xml:space="preserve">R21, R22</t>
+    <t xml:space="preserve">https://jlcpcb.com/partdetail/23889-0603WAF4701T5E/C23162</t>
   </si>
   <si>
     <t xml:space="preserve">C17477</t>
   </si>
   <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
     <t xml:space="preserve">LDR03</t>
   </si>
   <si>
-    <t xml:space="preserve">R23</t>
-  </si>
-  <si>
     <t xml:space="preserve">OptoDevice:R_LDR_10x8.5mm_P7.6mm_Vertical</t>
   </si>
   <si>
+    <t xml:space="preserve">SW1, SW2, SW3, SW4, SW5, SW6, SW7, SW8, SW9</t>
+  </si>
+  <si>
     <t xml:space="preserve">SW_Push</t>
   </si>
   <si>
-    <t xml:space="preserve">SW1-SW9</t>
-  </si>
-  <si>
     <t xml:space="preserve">tp4056:SW-SMD_4P-L5.2-W5.2-P3.70-LS6.4</t>
   </si>
   <si>
+    <t xml:space="preserve">TP1, TP7, TP12, TP13</t>
+  </si>
+  <si>
     <t xml:space="preserve">VCOM</t>
   </si>
   <si>
-    <t xml:space="preserve">TP1, TP2, TP7, TP8, TP9, TP12, TP13</t>
-  </si>
-  <si>
     <t xml:space="preserve">TestPoint:TestPoint_Pad_D1.5mm</t>
   </si>
   <si>
+    <t xml:space="preserve">TP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLKOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP3</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHOT1</t>
   </si>
   <si>
-    <t xml:space="preserve">TP3</t>
+    <t xml:space="preserve">TP4</t>
   </si>
   <si>
     <t xml:space="preserve">PREVGL</t>
   </si>
   <si>
-    <t xml:space="preserve">TP4</t>
+    <t xml:space="preserve">TP5</t>
   </si>
   <si>
     <t xml:space="preserve">PREVGH</t>
   </si>
   <si>
-    <t xml:space="preserve">TP5</t>
+    <t xml:space="preserve">TP6</t>
   </si>
   <si>
     <t xml:space="preserve">DONE</t>
   </si>
   <si>
-    <t xml:space="preserve">TP6</t>
-  </si>
-  <si>
     <t xml:space="preserve">TP10</t>
   </si>
   <si>
     <t xml:space="preserve">Connector_PinHeader_2.54mm:PinHeader_1x01_P2.54mm_Vertical</t>
   </si>
   <si>
+    <t xml:space="preserve">TP11</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHOT</t>
   </si>
   <si>
-    <t xml:space="preserve">TP11</t>
+    <t xml:space="preserve">TP14</t>
   </si>
   <si>
     <t xml:space="preserve">RESET_TOUCH</t>
   </si>
   <si>
-    <t xml:space="preserve">TP14</t>
+    <t xml:space="preserve">U1</t>
   </si>
   <si>
     <t xml:space="preserve">ESP32-S3-WROOM-1-N8</t>
   </si>
   <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tp4056:ESP32-S3-WROOM-1</t>
   </si>
   <si>
-    <t xml:space="preserve">C2913204</t>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/WiFi-Modules_Espressif-Systems-ESP32-S3-WROOM-1-N8R2_C2913204.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
   </si>
   <si>
     <t xml:space="preserve">RT9013</t>
   </si>
   <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Package_TO_SOT_SMD:SOT-23-5</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.ti.com/lit/ds/symlink/tps722.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">C47773</t>
   </si>
   <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
     <t xml:space="preserve">KoreanHropartsElecTYPE-C-31-M-12</t>
   </si>
   <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
     <t xml:space="preserve">tp4056:USB-C_SMD-TYPE-C-31-M-12</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/USB-Connectors_Korean-Hroparts-Elec-TYPE-C-31-M-12_C165948.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">C165948</t>
   </si>
   <si>
+    <t xml:space="preserve">U5</t>
+  </si>
+  <si>
     <t xml:space="preserve">BME680</t>
   </si>
   <si>
-    <t xml:space="preserve">U5</t>
-  </si>
-  <si>
     <t xml:space="preserve">tp4056:LGA-8_L3.0-W3.0-P0.80-TR</t>
   </si>
   <si>
+    <t xml:space="preserve">https://ae-bst.resource.bosch.com/media/_tech/media/datasheets/BST-BME680-DS001.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">C125972</t>
   </si>
   <si>
+    <t xml:space="preserve">U6</t>
+  </si>
+  <si>
     <t xml:space="preserve">TPL5110</t>
   </si>
   <si>
-    <t xml:space="preserve">U6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Package_TO_SOT_SMD:SOT-23-6</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.ti.com/lit/ds/symlink/tpl5110.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">C125830</t>
   </si>
   <si>
+    <t xml:space="preserve">U7</t>
+  </si>
+  <si>
     <t xml:space="preserve">RFM95W-868S2</t>
   </si>
   <si>
-    <t xml:space="preserve">U7</t>
-  </si>
-  <si>
     <t xml:space="preserve">RF_Module:HOPERF_RFM9XW_SMD</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.hoperf.com/data/upload/portal/20181127/5bfcbea20e9ef.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2844472</t>
   </si>
   <si>
+    <t xml:space="preserve">U8</t>
+  </si>
+  <si>
     <t xml:space="preserve">LSM6DSL</t>
   </si>
   <si>
-    <t xml:space="preserve">U8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Package_LGA:LGA-14_3x2.5mm_P0.5mm_LayoutBorder3x4y</t>
   </si>
   <si>
@@ -461,6 +518,9 @@
   </si>
   <si>
     <t xml:space="preserve">U9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RV3032</t>
   </si>
   <si>
     <t xml:space="preserve">rv3028:rv3028</t>
@@ -537,12 +597,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -563,18 +619,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27:C32"/>
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="71.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="94.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -590,598 +648,889 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>45</v>
+        <v>9</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>79</v>
+        <v>13</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>90</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>82</v>
+        <v>94</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>97</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>90</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>85</v>
+        <v>13</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>78</v>
+      <c r="D31" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>108</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>97</v>
+        <v>112</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>100</v>
+        <v>115</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>113</v>
+        <v>127</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>103</v>
+      <c r="D41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>121</v>
+        <v>135</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>125</v>
+        <v>139</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>129</v>
+        <v>144</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>133</v>
+        <v>149</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>137</v>
+        <v>154</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>141</v>
+        <v>159</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>145</v>
+        <v>163</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>165</v>
+      </c>
       <c r="B50" s="0" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>147</v>
+        <v>167</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
